--- a/inst/extdata/Concordance_Data/Country_Concordance_Sample.xlsx
+++ b/inst/extdata/Concordance_Data/Country_Concordance_Sample.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\earzm\Documents\Github\SEAPSUTWorkflow\inst\extdata\Concordance Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/PFUWorkflow/inst/extdata/Concordance_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA2303A-1DD1-B84E-BC65-C945FD90356A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="5865" windowWidth="27645" windowHeight="16935"/>
+    <workbookView xWindow="2600" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="country_concordance_table" sheetId="1" r:id="rId1"/>
@@ -72,9 +73,6 @@
     <t>World</t>
   </si>
   <si>
-    <t>WLD</t>
-  </si>
-  <si>
     <t>Ghana</t>
   </si>
   <si>
@@ -97,12 +95,15 @@
   </si>
   <si>
     <t>ZAF</t>
+  </si>
+  <si>
+    <t>WRLD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -178,8 +179,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -490,25 +491,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="11.6640625" style="2" customWidth="1"/>
     <col min="8" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -525,7 +526,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -534,7 +535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -542,62 +543,62 @@
         <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -607,19 +608,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="BJ5" sqref="BJ5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -807,7 +808,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -995,7 +996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1183,7 +1184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1371,7 +1372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1559,7 +1560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
